--- a/documentation/build_orders/terran/three_rax_bio.xlsx
+++ b/documentation/build_orders/terran/three_rax_bio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\terran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FCD749-C03A-492C-8C0D-188A01B9E6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1D93F-6BE8-4700-AD83-F45155320314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="9585" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +520,9 @@
       <c r="C2">
         <v>17</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -531,6 +534,9 @@
       <c r="C3">
         <v>39</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -542,6 +548,9 @@
       <c r="C4">
         <v>43</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -553,6 +562,9 @@
       <c r="C5">
         <v>87</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -564,6 +576,9 @@
       <c r="C6">
         <v>102</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -575,6 +590,9 @@
       <c r="C7">
         <v>105</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -586,6 +604,9 @@
       <c r="C8">
         <v>117</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -597,6 +618,9 @@
       <c r="C9">
         <v>140</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -608,6 +632,9 @@
       <c r="C10">
         <v>140</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -619,6 +646,9 @@
       <c r="C11">
         <v>144</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -630,6 +660,9 @@
       <c r="C12">
         <v>144</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -641,6 +674,9 @@
       <c r="C13">
         <v>162</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -652,6 +688,9 @@
       <c r="C14">
         <v>162</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -663,6 +702,9 @@
       <c r="C15">
         <v>180</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -674,8 +716,11 @@
       <c r="C16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -685,8 +730,11 @@
       <c r="C17">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -696,8 +744,11 @@
       <c r="C18">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -707,8 +758,11 @@
       <c r="C19">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -718,8 +772,11 @@
       <c r="C20">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -729,8 +786,11 @@
       <c r="C21">
         <v>210</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -740,8 +800,11 @@
       <c r="C22">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -751,8 +814,11 @@
       <c r="C23">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -762,8 +828,11 @@
       <c r="C24">
         <v>212</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -773,8 +842,11 @@
       <c r="C25">
         <v>226</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -784,8 +856,11 @@
       <c r="C26">
         <v>226</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -795,8 +870,11 @@
       <c r="C27">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -806,8 +884,11 @@
       <c r="C28">
         <v>230</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -817,8 +898,11 @@
       <c r="C29">
         <v>242</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -828,8 +912,11 @@
       <c r="C30">
         <v>245</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -839,8 +926,11 @@
       <c r="C31">
         <v>253</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -850,8 +940,11 @@
       <c r="C32">
         <v>283</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -861,8 +954,11 @@
       <c r="C33">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -872,8 +968,11 @@
       <c r="C34">
         <v>293</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -883,8 +982,11 @@
       <c r="C35">
         <v>298</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -894,8 +996,11 @@
       <c r="C36">
         <v>325</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -905,8 +1010,11 @@
       <c r="C37">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -916,8 +1024,11 @@
       <c r="C38">
         <v>328</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -927,8 +1038,11 @@
       <c r="C39">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -938,8 +1052,11 @@
       <c r="C40">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -949,8 +1066,11 @@
       <c r="C41">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -960,8 +1080,11 @@
       <c r="C42">
         <v>347</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -971,8 +1094,11 @@
       <c r="C43">
         <v>347</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -982,8 +1108,11 @@
       <c r="C44">
         <v>364</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1122,11 @@
       <c r="C45">
         <v>364</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1004,8 +1136,11 @@
       <c r="C46">
         <v>375</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +1150,11 @@
       <c r="C47">
         <v>375</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1164,11 @@
       <c r="C48">
         <v>382</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1037,8 +1178,11 @@
       <c r="C49">
         <v>388</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1047,6 +1191,9 @@
       </c>
       <c r="C50">
         <v>388</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
